--- a/FichesTemps/MaximeAubin2.xlsx
+++ b/FichesTemps/MaximeAubin2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4126456B-5F2A-49C8-9F8E-4337E0535F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A64F556-C381-4E99-A36E-CD5AD8A31BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bsnEa0N1OcI6znPoPEcq3AHEi57LtmD/hoPfLk9LAHbO8ZgF/KxDU64xoRN551lSOgXhKiKNTKiOVsg9sOO7CQ==" workbookSaltValue="Arsw55Oy1Kl5wQ7vU+yWcQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="89">
   <si>
     <t>Fiche d'évaluation du travail d'équipe</t>
   </si>
@@ -398,6 +398,21 @@
   </si>
   <si>
     <t>Création des modèles de l'API</t>
+  </si>
+  <si>
+    <t>01/02/2023</t>
+  </si>
+  <si>
+    <t>Finalisation de l'environnement de travail</t>
+  </si>
+  <si>
+    <t>Création du controller de medecin pour l'api</t>
+  </si>
+  <si>
+    <t>Recherche sur la création d'API</t>
+  </si>
+  <si>
+    <t>Créaction du controller pour les requêtes</t>
   </si>
 </sst>
 </file>
@@ -1794,10 +1809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B1E992-A4D6-4269-AA92-453ABD10AC9B}">
-  <dimension ref="A1:F463"/>
+  <dimension ref="A1:F466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1889,8 +1904,8 @@
         <v>63</v>
       </c>
       <c r="C9" s="47">
-        <f>SUM(C11:C463)</f>
-        <v>8.65</v>
+        <f>SUM(C11:C466)</f>
+        <v>11.25</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>64</v>
@@ -1952,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1964,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1973,29 +1988,47 @@
       </c>
       <c r="B16" s="52"/>
       <c r="C16" s="53">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="D16" s="52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="52" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="52"/>
-    </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
+      <c r="A18" s="48" t="s">
+        <v>80</v>
+      </c>
       <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="52"/>
+      <c r="C18" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
+      <c r="A19" s="48" t="s">
+        <v>80</v>
+      </c>
       <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="52"/>
+      <c r="C19" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="51"/>
@@ -2004,10 +2037,16 @@
       <c r="D20" s="52"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
+      <c r="A21" s="51" t="s">
+        <v>84</v>
+      </c>
       <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="52"/>
+      <c r="C21" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="51"/>
@@ -4660,6 +4699,24 @@
       <c r="B463" s="52"/>
       <c r="C463" s="53"/>
       <c r="D463" s="52"/>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464" s="51"/>
+      <c r="B464" s="52"/>
+      <c r="C464" s="53"/>
+      <c r="D464" s="52"/>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465" s="51"/>
+      <c r="B465" s="52"/>
+      <c r="C465" s="53"/>
+      <c r="D465" s="52"/>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466" s="51"/>
+      <c r="B466" s="52"/>
+      <c r="C466" s="53"/>
+      <c r="D466" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/FichesTemps/MaximeAubin2.xlsx
+++ b/FichesTemps/MaximeAubin2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A64F556-C381-4E99-A36E-CD5AD8A31BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089CE51B-DDDF-4F41-A664-4EEA7B6C388E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bsnEa0N1OcI6znPoPEcq3AHEi57LtmD/hoPfLk9LAHbO8ZgF/KxDU64xoRN551lSOgXhKiKNTKiOVsg9sOO7CQ==" workbookSaltValue="Arsw55Oy1Kl5wQ7vU+yWcQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="90">
   <si>
     <t>Fiche d'évaluation du travail d'équipe</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>Créaction du controller pour les requêtes</t>
+  </si>
+  <si>
+    <t>Créaction du controller pour les resultats</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1815,7 @@
   <dimension ref="A1:F466"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1905,7 +1908,7 @@
       </c>
       <c r="C9" s="47">
         <f>SUM(C11:C466)</f>
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>64</v>
@@ -2049,10 +2052,16 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="51"/>
+      <c r="A22" s="51" t="s">
+        <v>84</v>
+      </c>
       <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="52"/>
+      <c r="C22" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="51"/>

--- a/FichesTemps/MaximeAubin2.xlsx
+++ b/FichesTemps/MaximeAubin2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089CE51B-DDDF-4F41-A664-4EEA7B6C388E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AADEE7C-9505-4A7F-862F-AB8CB6B20DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bsnEa0N1OcI6znPoPEcq3AHEi57LtmD/hoPfLk9LAHbO8ZgF/KxDU64xoRN551lSOgXhKiKNTKiOVsg9sOO7CQ==" workbookSaltValue="Arsw55Oy1Kl5wQ7vU+yWcQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="93">
   <si>
     <t>Fiche d'évaluation du travail d'équipe</t>
   </si>
@@ -416,6 +416,15 @@
   </si>
   <si>
     <t>Créaction du controller pour les resultats</t>
+  </si>
+  <si>
+    <t>02/02/2023</t>
+  </si>
+  <si>
+    <t>Seed des types d'analyses</t>
+  </si>
+  <si>
+    <t>Création de la validation pour les requêtes</t>
   </si>
 </sst>
 </file>
@@ -1814,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B1E992-A4D6-4269-AA92-453ABD10AC9B}">
   <dimension ref="A1:F466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1908,7 +1917,7 @@
       </c>
       <c r="C9" s="47">
         <f>SUM(C11:C466)</f>
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>64</v>
@@ -2070,16 +2079,28 @@
       <c r="D23" s="52"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
+      <c r="A24" s="51" t="s">
+        <v>90</v>
+      </c>
       <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="52"/>
+      <c r="C24" s="53">
+        <v>1</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
+      <c r="A25" s="51" t="s">
+        <v>90</v>
+      </c>
       <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="52"/>
+      <c r="C25" s="53">
+        <v>1</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="51"/>

--- a/FichesTemps/MaximeAubin2.xlsx
+++ b/FichesTemps/MaximeAubin2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AADEE7C-9505-4A7F-862F-AB8CB6B20DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD271BE-0E20-44A2-894F-494BDBCC0040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bsnEa0N1OcI6znPoPEcq3AHEi57LtmD/hoPfLk9LAHbO8ZgF/KxDU64xoRN551lSOgXhKiKNTKiOVsg9sOO7CQ==" workbookSaltValue="Arsw55Oy1Kl5wQ7vU+yWcQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="101">
   <si>
     <t>Fiche d'évaluation du travail d'équipe</t>
   </si>
@@ -425,6 +425,32 @@
   </si>
   <si>
     <t>Création de la validation pour les requêtes</t>
+  </si>
+  <si>
+    <t>Recherche et création du formulaire de création de requetes</t>
+  </si>
+  <si>
+    <t>05/02/2023</t>
+  </si>
+  <si>
+    <t>Création du formulaire de création de requêtes</t>
+  </si>
+  <si>
+    <t>Malgré le fait que j'ai réussi a complété l'API dans de bons temps, celui semble encore avoir des des erreurs (donc le travail n'est pas d'une qualité parfaite)
+Mais je n'ai pas réussi à compléter le form pour créer une requête dans le temps prévu</t>
+  </si>
+  <si>
+    <t>Louis faisait l'API avec moi, donc puisque l'API a été fini dans les temps, mais avec certains bogues, j'ai descendu le travail de qualité au même niveau que je l'ai mis pour moi.
+Il a aussi moins parlé lorsque l'on a fait le plan de l'application donc j'ai baissé de 1 point les sections lier a s'exprimer</t>
+  </si>
+  <si>
+    <t>Cette semaine Jean-Philippe a bien accompli sont rôle de chef  d'équipe, il a écouté les propositions de tous ceux qui on partager leurs pensés et n'avais rien a reproché</t>
+  </si>
+  <si>
+    <t>Malheureusement, Karl a été bloqué à faire fonctionner un  bouton pendant longtemps, il n'a donc pas respecté l'échéance. Et son travail s'arrête à un bouton donc je ne sais pas si c'est un travail de qualité.</t>
+  </si>
+  <si>
+    <t>Souvent préfère faire comme il le pense, plutôt que d'écouter  les autres, mais honnêtement je n'ai aucun reproche a lui faire</t>
   </si>
 </sst>
 </file>
@@ -982,7 +1008,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1062,7 +1088,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1823,8 +1849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B1E992-A4D6-4269-AA92-453ABD10AC9B}">
   <dimension ref="A1:F466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1901,11 +1927,13 @@
       <c r="C8" s="56"/>
       <c r="D8" s="38" t="str">
         <f>_xlfn.CONCAT("Évaluateur = ",Évaluateur!F14," ",Évaluateur!D30,CHAR(10),'Coéquipier 1'!D9:I9," ",'Coéquipier 1'!D10:I10," = ",'Coéquipier 1'!F11:I25," ",'Coéquipier 1'!D27:I27,CHAR(10),'Coéquipier 2'!D9:I9," ",'Coéquipier 2'!D10:I10," = ",'Coéquipier 2'!F11:I25,CHAR(10),'Coéquipier 3'!D9:I9," ",'Coéquipier 3'!D10:I10," = ",'Coéquipier 3'!F11:I25,CHAR(10),'Coéquipier 4'!D9:I9," ",'Coéquipier 4'!D10:I10," = ",'Coéquipier 4'!F11:I25,CHAR(10),'Coéquipier 5'!D9:I9," ",'Coéquipier 5'!D10:I10," = ",'Coéquipier 5'!F11:I25)</f>
-        <v>Évaluateur = 75 
-Louis Garceau = 75 
-Jean-Philippe Belval = 75
-Karl Mainville = 75
-Victor Turgeon = 75
+        <v>Évaluateur = 70 Malgré le fait que j'ai réussi a complété l'API dans de bons temps, celui semble encore avoir des des erreurs (donc le travail n'est pas d'une qualité parfaite)
+Mais je n'ai pas réussi à compléter le form pour créer une requête dans le temps prévu
+Louis Garceau = 70 Louis faisait l'API avec moi, donc puisque l'API a été fini dans les temps, mais avec certains bogues, j'ai descendu le travail de qualité au même niveau que je l'ai mis pour moi.
+Il a aussi moins parlé lorsque l'on a fait le plan de l'application donc j'ai baissé de 1 point les sections lier a s'exprimer
+Jean-Philippe Belval = 74
+Karl Mainville = 71
+Victor Turgeon = 73
 Coéquipier 5 = à évaluer</v>
       </c>
       <c r="E8" s="11"/>
@@ -1917,7 +1945,7 @@
       </c>
       <c r="C9" s="47">
         <f>SUM(C11:C466)</f>
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>64</v>
@@ -2103,10 +2131,16 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
+      <c r="A26" s="51" t="s">
+        <v>90</v>
+      </c>
       <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="52"/>
+      <c r="C26" s="53">
+        <v>3.5</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="51"/>
@@ -2115,10 +2149,16 @@
       <c r="D27" s="52"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
+      <c r="A28" s="51" t="s">
+        <v>94</v>
+      </c>
       <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="52"/>
+      <c r="C28" s="53">
+        <v>4</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="51"/>
@@ -4778,8 +4818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4932,7 +4972,9 @@
       <c r="A11" s="17"/>
       <c r="B11" s="28"/>
       <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
+      <c r="D11" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
@@ -4989,7 +5031,7 @@
       </c>
       <c r="F14" s="69">
         <f>IFERROR(SUM(E14:E28),"Autoévaluation à faire")</f>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G14" s="70"/>
       <c r="H14" s="70"/>
@@ -5041,11 +5083,11 @@
         <v>23</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" s="13">
         <f>VLOOKUP(Évaluateur!D17,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="72"/>
       <c r="G17" s="73"/>
@@ -5193,11 +5235,11 @@
         <v>15</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" s="13">
         <f>VLOOKUP(Évaluateur!D25,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" s="72"/>
       <c r="G25" s="73"/>
@@ -5212,11 +5254,11 @@
         <v>18</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E26" s="13">
         <f>VLOOKUP(Évaluateur!D26,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F26" s="72"/>
       <c r="G26" s="73"/>
@@ -5231,11 +5273,11 @@
         <v>14</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" s="13">
         <f>VLOOKUP(Évaluateur!D27,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" s="72"/>
       <c r="G27" s="73"/>
@@ -5274,13 +5316,15 @@
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:10" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="73.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
       <c r="B30" s="5"/>
       <c r="C30" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="64"/>
+      <c r="D30" s="64" t="s">
+        <v>96</v>
+      </c>
       <c r="E30" s="65"/>
       <c r="F30" s="65"/>
       <c r="G30" s="65"/>
@@ -5396,8 +5440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5559,7 +5603,7 @@
       </c>
       <c r="F11" s="80">
         <f>IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G11" s="81"/>
       <c r="H11" s="81"/>
@@ -5630,11 +5674,11 @@
         <v>35</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="13">
         <f>VLOOKUP('Coéquipier 1'!D15,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" s="83"/>
       <c r="G15" s="84"/>
@@ -5649,11 +5693,11 @@
         <v>36</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="13">
         <f>VLOOKUP('Coéquipier 1'!D16,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" s="83"/>
       <c r="G16" s="84"/>
@@ -5782,11 +5826,11 @@
         <v>43</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E23" s="13">
         <f>VLOOKUP('Coéquipier 1'!D23,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F23" s="83"/>
       <c r="G23" s="84"/>
@@ -5801,11 +5845,11 @@
         <v>44</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" s="13">
         <f>VLOOKUP('Coéquipier 1'!D24,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" s="83"/>
       <c r="G24" s="84"/>
@@ -5844,13 +5888,15 @@
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:10" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17"/>
       <c r="B27" s="5"/>
       <c r="C27" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="89"/>
+      <c r="D27" s="64" t="s">
+        <v>97</v>
+      </c>
       <c r="E27" s="65"/>
       <c r="F27" s="65"/>
       <c r="G27" s="65"/>
@@ -5964,8 +6010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6127,7 +6173,7 @@
       </c>
       <c r="F11" s="80">
         <f>IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" s="81"/>
       <c r="H11" s="81"/>
@@ -6369,11 +6415,11 @@
         <v>44</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" s="13">
         <f>VLOOKUP('Coéquipier 2'!D24,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" s="83"/>
       <c r="G24" s="84"/>
@@ -6412,13 +6458,15 @@
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:10" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17"/>
       <c r="B27" s="5"/>
       <c r="C27" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="64"/>
+      <c r="D27" s="64" t="s">
+        <v>98</v>
+      </c>
       <c r="E27" s="65"/>
       <c r="F27" s="65"/>
       <c r="G27" s="65"/>
@@ -6533,7 +6581,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6695,7 +6743,7 @@
       </c>
       <c r="F11" s="80">
         <f>IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G11" s="81"/>
       <c r="H11" s="81"/>
@@ -6899,11 +6947,11 @@
         <v>42</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E22" s="13">
         <f>VLOOKUP('Coéquipier 3'!D22,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F22" s="83"/>
       <c r="G22" s="84"/>
@@ -6918,11 +6966,11 @@
         <v>43</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" s="13">
         <f>VLOOKUP('Coéquipier 3'!D23,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" s="83"/>
       <c r="G23" s="84"/>
@@ -6937,11 +6985,11 @@
         <v>44</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" s="13">
         <f>VLOOKUP('Coéquipier 3'!D24,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" s="83"/>
       <c r="G24" s="84"/>
@@ -6986,7 +7034,9 @@
       <c r="C27" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="64"/>
+      <c r="D27" s="64" t="s">
+        <v>99</v>
+      </c>
       <c r="E27" s="65"/>
       <c r="F27" s="65"/>
       <c r="G27" s="65"/>
@@ -7101,7 +7151,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D27" sqref="D27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7263,7 +7313,7 @@
       </c>
       <c r="F11" s="80">
         <f>IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G11" s="81"/>
       <c r="H11" s="81"/>
@@ -7448,11 +7498,11 @@
         <v>41</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" s="13">
         <f>VLOOKUP('Coéquipier 4'!D21,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" s="83"/>
       <c r="G21" s="84"/>
@@ -7505,11 +7555,11 @@
         <v>44</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" s="13">
         <f>VLOOKUP('Coéquipier 4'!D24,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" s="83"/>
       <c r="G24" s="84"/>
@@ -7554,7 +7604,9 @@
       <c r="C27" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="64"/>
+      <c r="D27" s="64" t="s">
+        <v>100</v>
+      </c>
       <c r="E27" s="65"/>
       <c r="F27" s="65"/>
       <c r="G27" s="65"/>
@@ -8092,7 +8144,7 @@
       <c r="C27" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="64"/>
+      <c r="D27" s="89"/>
       <c r="E27" s="65"/>
       <c r="F27" s="65"/>
       <c r="G27" s="65"/>

--- a/FichesTemps/MaximeAubin2.xlsx
+++ b/FichesTemps/MaximeAubin2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD271BE-0E20-44A2-894F-494BDBCC0040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1F284B-4D41-4E88-9066-0E90EE192797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bsnEa0N1OcI6znPoPEcq3AHEi57LtmD/hoPfLk9LAHbO8ZgF/KxDU64xoRN551lSOgXhKiKNTKiOVsg9sOO7CQ==" workbookSaltValue="Arsw55Oy1Kl5wQ7vU+yWcQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1849,7 +1849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B1E992-A4D6-4269-AA92-453ABD10AC9B}">
   <dimension ref="A1:F466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="C9" s="47">
         <f>SUM(C11:C466)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>64</v>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="B28" s="52"/>
       <c r="C28" s="53">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D28" s="52" t="s">
         <v>95</v>

--- a/FichesTemps/MaximeAubin2.xlsx
+++ b/FichesTemps/MaximeAubin2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1F284B-4D41-4E88-9066-0E90EE192797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50FFA6D-835F-47D0-A374-382EB05D051E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bsnEa0N1OcI6znPoPEcq3AHEi57LtmD/hoPfLk9LAHbO8ZgF/KxDU64xoRN551lSOgXhKiKNTKiOVsg9sOO7CQ==" workbookSaltValue="Arsw55Oy1Kl5wQ7vU+yWcQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1849,8 +1849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B1E992-A4D6-4269-AA92-453ABD10AC9B}">
   <dimension ref="A1:F466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D11:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
